--- a/biology/Zoologie/Dermestidae/Dermestidae.xlsx
+++ b/biology/Zoologie/Dermestidae/Dermestidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dermestidae (dermestidés) sont une famille de petits coléoptères détritiphages. Ils sont caractérisés par des écailles colorées ou sombres qui recouvrent leur corps. Les larves sont très velues et attaquent les denrées stockées (viandes séchées, fourrures, collections d'histoire naturelle, lainage, livres, grains). 
 Elle a été décrite par Pierre André Latreille (1762-1833) en 1804.
@@ -512,7 +524,9 @@
           <t>Espèces vivant au Québec</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une vingtaine d'espèces de dermestidés vivent au Québec. Ces insectes, dont le nom signifie « mangeurs de peau », sont fréquemment trouvés dans les habitations. Les principaux sont :
 le dermeste du lard (Dermestes lardarius), le dermeste noir, le dermeste des peaux
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (29 mai 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (29 mai 2023) :
 Adelaidella Zhou, Slipinski &amp; Liu, 2020
 Adelaidia Blackburn, 1891
 Afrothorictus John &amp; Andreae, 1967
@@ -663,9 +679,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (31 août 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (31 août 2014) :
 Anthreninae
 Dermestinae Latreille, 1804
 Marioutinae Jacobson, 1913
